--- a/data/trans_camb/P25_5-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_5-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>3,15</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,66</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,34</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-1,72</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 8,51</t>
+          <t>-5,44; 9,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 7,64</t>
+          <t>-7,92; 6,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 13,56</t>
+          <t>-7,96; 5,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 2,0</t>
+          <t>-4,24; 11,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 3,36</t>
+          <t>-12,14; 5,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 7,85</t>
+          <t>-7,29; 2,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 3,28</t>
+          <t>-6,77; 3,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 3,54</t>
+          <t>-7,34; 3,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 8,79</t>
+          <t>-3,52; 9,07</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-7,43; 5,94</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-4,86; 4,48</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,78; 3,25</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-5,98; 3,11</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-1,35; 8,58</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-7,78; 4,39</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-11,97%</t>
+          <t>-13,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64,55%</t>
+          <t>-15,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-36,62%</t>
+          <t>49,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-22,23%</t>
+          <t>-21,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>-29,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-12,55%</t>
+          <t>-19,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-17,05%</t>
+          <t>-28,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>42,62%</t>
+          <t>62,15%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-5,39%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-6,03%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-16,06%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-21,79%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>56,09%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-15,64%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-54,26; 177,93</t>
+          <t>-51,58; 190,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-71,17; 170,24</t>
+          <t>-72,37; 133,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 292,76</t>
+          <t>-72,69; 117,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-75,43; 60,12</t>
+          <t>-47,29; 393,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-72,51; 84,02</t>
+          <t>-67,44; 61,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,21; 178,2</t>
+          <t>-74,0; 62,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-52,78; 65,63</t>
+          <t>-66,76; 104,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-59,99; 67,07</t>
+          <t>-77,39; 106,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 151,85</t>
+          <t>-49,49; 326,98</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-60,99; 115,83</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-49,36; 86,52</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-58,44; 63,24</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-63,08; 65,24</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-19,95; 236,44</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-55,0; 57,55</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,98</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 5,13</t>
+          <t>-5,6; 5,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 10,23</t>
+          <t>-4,87; 9,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 4,62</t>
+          <t>-4,08; 8,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 3,76</t>
+          <t>-9,69; 3,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 4,53</t>
+          <t>-6,09; 6,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 10,84</t>
+          <t>-7,12; 3,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 2,64</t>
+          <t>-6,15; 4,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 4,97</t>
+          <t>-2,54; 9,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 5,74</t>
+          <t>-6,36; 7,61</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,64; 7,2</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,49; 2,91</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 5,48</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,15; 7,25</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-6,05; 3,65</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-3,92; 5,25</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,53%</t>
+          <t>-1,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-19,63%</t>
+          <t>36,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-21,63%</t>
+          <t>-31,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,1%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>-17,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-13,51%</t>
+          <t>-4,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>48,76%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>3,01%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1,56%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-9,73%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3,07%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>42,36%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-12,28%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>5,31%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-58,97; 121,94</t>
+          <t>-58,84; 147,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-58,72; 265,48</t>
+          <t>-58,85; 228,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-72,78; 138,16</t>
+          <t>-48,28; 219,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,21; 80,95</t>
+          <t>-76,43; 75,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,97; 96,58</t>
+          <t>-72,96; 252,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 197,69</t>
+          <t>-62,76; 87,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-53,72; 53,19</t>
+          <t>-54,4; 101,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,15; 92,78</t>
+          <t>-27,39; 195,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-37,65; 106,19</t>
+          <t>-44,32; 106,46</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-47,25; 96,41</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-49,25; 61,11</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-44,56; 104,62</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-16,29; 137,71</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-49,36; 48,06</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-36,78; 98,84</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3,43</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,08</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,2</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 0,34</t>
+          <t>-9,75; -0,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 2,7</t>
+          <t>-7,86; 1,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 5,71</t>
+          <t>-6,11; 3,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 3,6</t>
+          <t>-5,33; 4,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 3,89</t>
+          <t>-7,01; 3,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 5,71</t>
+          <t>-4,22; 3,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 1,24</t>
+          <t>-3,86; 3,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 1,98</t>
+          <t>-0,84; 9,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 4,19</t>
+          <t>-6,81; 6,14</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 8,83</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-4,81; 0,73</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,45; 1,68</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,62; 5,69</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 3,63</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 4,72</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-45,46%</t>
+          <t>-52,49%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-24,34%</t>
+          <t>-32,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>-11,88%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,56%</t>
+          <t>-6,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>-17,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>-0,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-24,81%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-11,56%</t>
+          <t>72,83%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>46,63%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-29,36%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-16,9%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>25,65%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-3,1%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>11,28%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-76,06; 10,8</t>
+          <t>-80,52; -3,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-61,13; 56,53</t>
+          <t>-66,81; 32,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-41,79; 112,75</t>
+          <t>-56,52; 67,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,91; 106,06</t>
+          <t>-56,85; 112,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,85; 101,52</t>
+          <t>-64,44; 71,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,55; 140,49</t>
+          <t>-48,61; 92,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-53,4; 25,39</t>
+          <t>-48,31; 101,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-42,71; 42,06</t>
+          <t>-14,34; 235,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-28,59; 79,56</t>
+          <t>-46,07; 77,68</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-26,29; 174,52</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-56,82; 13,45</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-49,48; 34,26</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-19,85; 100,42</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-40,04; 53,82</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-30,23; 79,29</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>-2,28</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,27</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,31</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 3,97</t>
+          <t>-2,87; 3,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 3,31</t>
+          <t>-3,12; 3,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 4,21</t>
+          <t>-2,92; 4,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 4,5</t>
+          <t>-1,7; 6,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 5,06</t>
+          <t>-1,86; 6,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 6,72</t>
+          <t>-3,85; 4,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 2,89</t>
+          <t>-2,99; 4,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 2,93</t>
+          <t>-0,02; 9,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 4,57</t>
+          <t>-7,32; 3,12</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-5,3; 5,5</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,34; 2,92</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,21; 2,94</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,43; 5,26</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 3,7</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 4,84</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,92%</t>
+          <t>-3,16%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>54,5%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>56,9%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>61,62%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>-20,71%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-0,9%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5,49%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5,47%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>41,28%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>20,12%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-53,04; 171,3</t>
+          <t>-51,16; 153,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-55,69; 164,99</t>
+          <t>-56,74; 125,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-58,49; 173,09</t>
+          <t>-52,19; 174,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,01; 102,7</t>
+          <t>-28,36; 241,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,64; 109,45</t>
+          <t>-32,62; 282,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,51; 146,79</t>
+          <t>-44,22; 85,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-34,48; 70,79</t>
+          <t>-34,34; 93,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-32,86; 70,77</t>
+          <t>-2,09; 194,92</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-26,82; 103,58</t>
+          <t>-54,32; 39,45</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-47,56; 88,69</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-33,63; 72,62</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-32,48; 73,09</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-7,94; 121,11</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-34,67; 56,81</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-26,15; 101,95</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>4,18</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>3,06</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 3,0</t>
+          <t>-10,01; 2,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 5,43</t>
+          <t>-6,12; 6,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 5,12</t>
+          <t>-6,31; 6,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 5,41</t>
+          <t>-6,0; 6,99</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 4,8</t>
+          <t>-4,31; 6,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 8,72</t>
+          <t>-3,36; 5,91</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 3,12</t>
+          <t>-3,6; 5,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 3,93</t>
+          <t>-4,33; 4,86</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 6,01</t>
+          <t>-1,05; 9,34</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-4,16; 6,94</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-3,92; 3,04</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-3,51; 3,92</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-3,64; 4,55</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 6,71</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-2,35; 5,0</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-19,04%</t>
+          <t>-22,36%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>24,66%</t>
+          <t>36,94%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>26,49%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>67,01%</t>
+          <t>23,09%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>43,11%</t>
+          <t>67,22%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>13,35%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2,36%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>14,02%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>9,61%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>54,02%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>17,57%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-84,3; 161,06</t>
+          <t>-86,88; 171,74</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-81,74; 308,42</t>
+          <t>-75,13; 307,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-75,06; 252,19</t>
+          <t>-92,55; 341,04</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-49,13; 170,32</t>
+          <t>-65,93; 358,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-51,04; 148,43</t>
+          <t>-50,6; 188,53</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 298,51</t>
+          <t>-43,18; 201,68</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-48,89; 103,22</t>
+          <t>-44,91; 165,63</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-50,37; 117,05</t>
+          <t>-54,43; 142,94</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-28,67; 186,1</t>
+          <t>-13,26; 241,99</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-38,6; 102,75</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-50,85; 98,83</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-46,7; 120,14</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-51,33; 131,28</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-19,46; 187,96</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-27,4; 91,27</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-2,44</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>4,03</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-2,72</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-1,73</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2,01</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 3,59</t>
+          <t>-7,44; 3,65</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 2,55</t>
+          <t>-8,31; 1,7</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 3,47</t>
+          <t>-8,27; 2,66</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 1,16</t>
+          <t>-6,02; 3,2</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 7,22</t>
+          <t>-5,83; 3,75</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 5,3</t>
+          <t>-9,09; 1,15</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 1,18</t>
+          <t>-4,09; 9,77</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 3,96</t>
+          <t>-2,5; 15,37</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 2,58</t>
+          <t>-12,62; 5,17</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 10,79</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 0,69</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; 4,67</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 8,23</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-7,96; 3,37</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 6,3</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-17,77%</t>
+          <t>-22,93%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-34,32%</t>
+          <t>-39,5%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-38,55%</t>
+          <t>-39,39%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-39,98%</t>
+          <t>-26,21%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>-21,07%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-12,18%</t>
+          <t>-44,97%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-31,07%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-1,03%</t>
+          <t>60,44%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-22,43%</t>
+          <t>-18,99%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>63,36%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-36,23%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-0,45%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>20,52%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-19,09%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>37,79%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-68,83; 102,09</t>
+          <t>-72,04; 101,56</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-78,57; 84,44</t>
+          <t>-78,73; 55,19</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-81,79; 116,08</t>
+          <t>-81,35; 86,6</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-77,71; 32,82</t>
+          <t>-88,15; 186,84</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-43,08; 156,31</t>
+          <t>-88,52; 317,55</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-69,63; 119,19</t>
+          <t>-77,85; 35,8</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-64,81; 24,81</t>
+          <t>-40,74; 201,6</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-43,8; 77,02</t>
+          <t>-27,63; 327,98</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-62,59; 60,2</t>
+          <t>-66,71; 66,15</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-27,14; 307,23</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-66,5; 15,09</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-45,4; 86,04</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-32,85; 148,61</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-59,34; 52,7</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-34,6; 190,71</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-0,98</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 0,96</t>
+          <t>-3,17; 0,85</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 2,15</t>
+          <t>-3,11; 1,52</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,57</t>
+          <t>-2,64; 1,96</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 1,01</t>
+          <t>-2,13; 2,79</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 2,42</t>
+          <t>-2,25; 2,68</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 4,19</t>
+          <t>-3,07; 0,9</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,53</t>
+          <t>-1,67; 2,44</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,48</t>
+          <t>0,63; 6,04</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 2,61</t>
+          <t>-2,44; 2,8</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 4,05</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 0,52</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 1,31</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-0,09; 3,16</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 2,1</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 2,46</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-13,48%</t>
+          <t>-15,44%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-10,05%</t>
+          <t>-13,86%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>-4,84%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-13,8%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>-14,03%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-13,64%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-2,49%</t>
+          <t>43,23%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>18,74%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-14,69%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-3,29%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>20,64%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>4,27%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>10,9%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-40,1; 17,81</t>
+          <t>-41,28; 15,88</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-37,0; 44,82</t>
+          <t>-40,75; 28,62</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-28,26; 50,16</t>
+          <t>-34,77; 36,31</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-36,04; 18,26</t>
+          <t>-29,56; 52,18</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 43,57</t>
+          <t>-30,39; 50,68</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 71,3</t>
+          <t>-37,58; 16,8</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-31,81; 9,53</t>
+          <t>-20,74; 41,39</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 26,39</t>
+          <t>4,5; 101,73</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 46,26</t>
+          <t>-21,6; 33,72</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-7,45; 59,01</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-30,91; 9,71</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-23,29; 23,06</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 53,21</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-16,45; 29,26</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-11,45; 37,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
